--- a/Process Results/Unified_IBNP_PRT.xlsx
+++ b/Process Results/Unified_IBNP_PRT.xlsx
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>95491.68500000001</v>
+        <v>95491.685</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>89632.09499999999</v>
+        <v>89632.09500000002</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>86708.92666666667</v>
+        <v>86708.92666666668</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>84198.78333333333</v>
+        <v>84198.78333333334</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>

--- a/Process Results/Unified_IBNP_PRT.xlsx
+++ b/Process Results/Unified_IBNP_PRT.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3951861377219238</v>
+        <v>0.3251170810419282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03742444886867629</v>
+        <v>0.08862033076769026</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.08496458741845353</v>
+        <v>0.08900771555534331</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.08496458741845353</v>
+        <v>0.08900771555534331</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5532605928106934</v>
+        <v>0.5201873296670851</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0523942284161468</v>
+        <v>0.1240684630747664</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1189504223858349</v>
+        <v>0.1246108017774806</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1189504223858349</v>
+        <v>0.1246108017774806</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6059520778402834</v>
+        <v>0.5449581548893273</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07293904432042204</v>
+        <v>0.1601703542484179</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1489480138485463</v>
+        <v>0.154697272842831</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1489480138485463</v>
+        <v>0.154697272842831</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6059520778402834</v>
+        <v>0.5449581548893273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3809205441988462</v>
+        <v>0.7405015515997307</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.4698520836711964</v>
+        <v>0.4769400111534335</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.4698520836711964</v>
+        <v>0.4769400111534335</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6355504016012294</v>
+        <v>0.8491124237628911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6644582882473942</v>
+        <v>0.7842582875501513</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7621479271513859</v>
+        <v>0.786557634928798</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7621479271513859</v>
+        <v>0.786557634928798</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6621412019777032</v>
+        <v>0.8833840259039153</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7239252422289387</v>
+        <v>0.800015836206969</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8242648207614071</v>
+        <v>0.846232984673143</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8242648207614071</v>
+        <v>0.846232984673143</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6641765198206456</v>
+        <v>0.8874773699180163</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7260383329877624</v>
+        <v>0.8028948913521885</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8317277178448393</v>
+        <v>0.8513034715710271</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8317277178448393</v>
+        <v>0.8513034715710271</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7088712247040191</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7699249244952435</v>
+        <v>0.830936216964978</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8709319661447404</v>
+        <v>0.8797686062893763</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8709319661447404</v>
+        <v>0.8797686062893763</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7088712247040191</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7752588942112426</v>
+        <v>0.8345796249791395</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.897762573775639</v>
+        <v>0.8974858581848433</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.897762573775639</v>
+        <v>0.8974858581848433</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7088712247040191</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7874211356318859</v>
+        <v>0.8437218309381876</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9208093698594527</v>
+        <v>0.9166493729997178</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9208093698594527</v>
+        <v>0.9166493729997178</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7088712247040191</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.809538166682369</v>
+        <v>0.8529072378846108</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9338422233803712</v>
+        <v>0.9240808769400179</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9338422233803712</v>
+        <v>0.9240808769400179</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8115494807195861</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8683757691283424</v>
+        <v>0.8942562771427054</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9456029102925748</v>
+        <v>0.9473802349156298</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9456029102925748</v>
+        <v>0.9473802349156298</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8115494807195861</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8762574917348687</v>
+        <v>0.8979659400105623</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9571092450910016</v>
+        <v>0.9595183381269189</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9571092450910016</v>
+        <v>0.9595183381269189</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8331961685840322</v>
+        <v>0.9743867339296418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9033420740671421</v>
+        <v>0.918735329518706</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9631761761604624</v>
+        <v>0.9658951939774311</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9631761761604624</v>
+        <v>0.9658951939774311</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8756432546958273</v>
+        <v>0.9912633081658364</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9254239345418582</v>
+        <v>0.9420435788153957</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9694517181871686</v>
+        <v>0.9724331888173356</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9694517181871686</v>
+        <v>0.9724331888173356</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9787318009988413</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9864281167217598</v>
+        <v>0.9906830220889197</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9864281167217598</v>
+        <v>0.9906830220889197</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4338,17 +4338,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9897668946986325</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9901390437881444</v>
+        <v>0.9944966270518526</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9901390437881444</v>
+        <v>0.9944966270518526</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4376,17 +4376,17 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9945181074119553</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9945181074119553</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9945181074119553</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4833,58 +4833,58 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.532375</v>
+        <v>26.563375</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.081572722081736</v>
+        <v>1.015999472958538</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.196093219699827</v>
+        <v>1.004168461420889</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1</v>
+        <v>1.001844958880479</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.176555898858692</v>
+        <v>1.012890928929546</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>1.005454371906348</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.535934401629241</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.007283132993079</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1.056127569001012</v>
+        <v>1.001356981444234</v>
       </c>
       <c r="T38" s="4" t="n">
         <v>1</v>
@@ -4908,25 +4908,25 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v/>
+        <v>2.2</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>26.563375</v>
+        <v>1.022727272727273</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.015999472958538</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.004168461420889</v>
+        <v>1.038095238095238</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.001844958880479</v>
+        <v>1.073394495412844</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.012890928929546</v>
+        <v>1.41025641025641</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.005454371906348</v>
+        <v>1.157575757575757</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
@@ -4935,31 +4935,31 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1</v>
+        <v>1.021032460732984</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1</v>
+        <v>1.04636309002488</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>1.069131054382364</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1.007283132993079</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1.001356981444234</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
         <v>1</v>
@@ -4983,52 +4983,52 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.022727272727273</v>
+        <v>1.5</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.166666666666667</v>
+        <v>1.617433333333333</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.038095238095238</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.073394495412844</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.41025641025641</v>
+        <v>1.041341219627806</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.157575757575757</v>
+        <v>1.039581230580459</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>1.066827847474728</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.021032460732984</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.04636309002488</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.017844587914931</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1.069131054382364</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>1</v>
@@ -5058,31 +5058,31 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.5</v>
+        <v>1.854166666666667</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.617433333333333</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1</v>
+        <v>1.467415730337079</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.041341219627806</v>
+        <v>1.03062787136294</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.039581230580459</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1</v>
+        <v>1.111579494799406</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.066827847474728</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>1</v>
@@ -5091,16 +5091,16 @@
         <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>1.115079274902987</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>1.011987777262303</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1.017844587914931</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
@@ -5133,31 +5133,31 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>2.4</v>
+        <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.854166666666667</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1</v>
+        <v>1.326086956521739</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.467415730337079</v>
+        <v>1.147540983606557</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.03062787136294</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.111579494799406</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>1</v>
@@ -5166,13 +5166,13 @@
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.115079274902987</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.011987777262303</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>1</v>
@@ -5211,28 +5211,28 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.277777777777778</v>
+        <v>1</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.326086956521739</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.147540983606557</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.079468421052632</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v>1.146480480158362</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>1.29769245817421</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.142857142857143</v>
+        <v>1.033256647724666</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>1</v>
@@ -5241,25 +5241,25 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.031716832122808</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>1.476497894186726</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5286,52 +5286,52 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.266666666666667</v>
+        <v>1.043028571428571</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.079468421052632</v>
+        <v>1.192127321536186</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.146480480158362</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.29769245817421</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.033256647724666</v>
+        <v>1.070363374831686</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>1.085870078571122</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.031716832122808</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>1.059309635838836</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>1.130640886864992</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.476497894186726</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5361,46 +5361,46 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v>1.36158</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.043028571428571</v>
+        <v>1.264398713259596</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.192127321536186</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>1.058448634393987</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v>1.055690800810447</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.070363374831686</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>1.020793435928146</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.085870078571122</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>1.015277407159197</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.059309635838836</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.130640886864992</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>1.010031680045584</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5436,46 +5436,46 @@
         <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.666666666666667</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.36158</v>
+        <v>2.04607817758219</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.264398713259596</v>
+        <v>1.194643413266895</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.058448634393987</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.055690800810447</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>1.081465067778936</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.020793435928146</v>
+        <v>1.151647432807039</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>1.024528480836715</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.015277407159197</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>1.063843302997124</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1.010031680045584</v>
+        <v>1.015002985594133</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5511,43 +5511,43 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>2.04607817758219</v>
+        <v>1.2</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.194643413266895</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>1.166991666666667</v>
       </c>
       <c r="G47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v>1.144459757638943</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>1.062395098241082</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.081465067778936</v>
+        <v>1.236472875273831</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.151647432807039</v>
+        <v>1.035623868942161</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.024528480836715</v>
+        <v>1.435713859828558</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1</v>
+        <v>1.095836541195337</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.063843302997124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5586,40 +5586,40 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.2</v>
+        <v>1.029876470588235</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1</v>
+        <v>1.22891380462534</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.166991666666667</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.144459757638943</v>
+        <v>1.092955376771381</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.062395098241082</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.236472875273831</v>
+        <v>1.031893585987234</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.035623868942161</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.435713859828558</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.095836541195337</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5661,28 +5661,28 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.133333333333333</v>
+        <v>1.133235627206715</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.029876470588235</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.22891380462534</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.029757215919111</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.092955376771381</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.114173498047633</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.031893585987234</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
@@ -5736,25 +5736,25 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.133235627206715</v>
+        <v/>
       </c>
       <c r="D50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.667576197387518</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.029757215919111</v>
+        <v>3.191552111723397</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>1.031166289294847</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.114173498047633</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
@@ -5814,19 +5814,19 @@
         <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v>1.697499378573204</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.667576197387518</v>
+        <v>16.29315979991331</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>3.191552111723397</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.003594967907721</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.031166289294847</v>
+        <v>1.007164180815327</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
@@ -5889,19 +5889,19 @@
         <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.697499378573204</v>
+        <v>5.726559999999999</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>16.29315979991331</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.003594967907721</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.007164180815327</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -5964,7 +5964,7 @@
         <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>5.726559999999999</v>
+        <v>1.28723494908466</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>1</v>
@@ -5973,13 +5973,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>1.055166022143641</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>2.045636818963669</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6036,10 +6036,10 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v/>
+        <v>6.0329</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.28723494908466</v>
+        <v>23.0872217341577</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
@@ -6048,10 +6048,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.055166022143641</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>2.045636818963669</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,19 +6111,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>6.0329</v>
+        <v>1.399125914247797</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>23.0872217341577</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.927121146207005</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>1.018503510115869</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.399125914247797</v>
+        <v>1.260869565217391</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1</v>
+        <v>2.03448275862069</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.927121146207005</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.260869565217391</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>2.03448275862069</v>
+        <v>1.65</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>2.2</v>
+        <v/>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,37 +6704,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.06814855406999075</v>
+        <v>0.07720465025193327</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.08496458741845353</v>
+        <v>0.08900771555534331</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.03742444886867629</v>
+        <v>0.08862033076769026</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.3951861377219238</v>
+        <v>0.3251170810419282</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01766944770401291</v>
+        <v>0.02173977821731359</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.02445085872950919</v>
+        <v>0.02578084771278356</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.006030325035571461</v>
+        <v>0.03197209067404629</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1855190306077116</v>
+        <v>0.2021198123128745</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.08496458741845353</v>
+        <v>0.08900771555534331</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>1.969230769230769</v>
+        <v>1.8</v>
       </c>
       <c r="O2" s="22" t="n">
         <v>1.4</v>
@@ -6743,10 +6743,10 @@
         <v>1.4</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>2.114285714285714</v>
+        <v>1.8</v>
       </c>
       <c r="S2" s="22" t="n">
         <v>1.4</v>
@@ -6755,7 +6755,7 @@
         <v>1.4</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="V2" s="22" t="n">
         <v>1.4</v>
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.1342002295532126</v>
+        <v>0.1389683704534799</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.1189504223858349</v>
+        <v>0.1246108017774806</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.0523942284161468</v>
+        <v>0.1240684630747664</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.5532605928106934</v>
+        <v>0.5201873296670851</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.03735826085991301</v>
+        <v>0.03913160079116446</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.03423120222131287</v>
+        <v>0.03609318679789698</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.008442455049800046</v>
+        <v>0.04476092694366481</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.2597266428507962</v>
+        <v>0.3233916997005993</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.1189504223858349</v>
+        <v>0.1246108017774806</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>3.342193037026068</v>
+        <v>3.289815186956186</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.25218566576762</v>
+        <v>1.241443523644734</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.392119829327304</v>
+        <v>1.29098362532222</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.095238095238095</v>
+        <v>1.047619047619048</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>3.031954087677075</v>
+        <v>3.005985504789375</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.744933055000655</v>
+        <v>1.756296691364291</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.138579095893038</v>
+        <v>1.963967428395713</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.086956521739131</v>
+        <v>1.03030303030303</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.25218566576762</v>
+        <v>1.241443523644734</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.4485230727800469</v>
+        <v>0.4571802556244114</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.1489480138485463</v>
+        <v>0.154697272842831</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.07293904432042204</v>
+        <v>0.1601703542484179</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6059520778402834</v>
+        <v>0.5449581548893273</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.1132685317227197</v>
+        <v>0.1176290247574448</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.05973115626838066</v>
+        <v>0.06339034455393978</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.01805485788751899</v>
+        <v>0.08790900258215777</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.2823115683160828</v>
+        <v>0.333191448176375</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.1489480138485463</v>
+        <v>0.154697272842831</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.411203464946303</v>
+        <v>1.418131840678634</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>3.154470284840137</v>
+        <v>3.083053775860638</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>5.222450441295309</v>
+        <v>4.623212298396006</v>
       </c>
       <c r="Q4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>2.459229041026096</v>
+        <v>2.45534462568887</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>3.422872559165499</v>
+        <v>3.335699377700317</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>5.516836113873726</v>
+        <v>4.729076113873727</v>
       </c>
       <c r="U4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>3.154470284840137</v>
+        <v>3.083053775860638</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6329573144155649</v>
+        <v>0.6483418774305749</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.4698520836711964</v>
+        <v>0.4769400111534335</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.3809205441988462</v>
+        <v>0.7405015515997307</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.6059520778402834</v>
+        <v>0.5449581548893273</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.2785532626468979</v>
+        <v>0.2888197937632151</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.2044521357182665</v>
+        <v>0.2114511328807856</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.09960569202472265</v>
+        <v>0.4157283643057461</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.2823115683160828</v>
+        <v>0.333191448176375</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.4698520836711964</v>
+        <v>0.4769400111534335</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.275123953571223</v>
+        <v>1.280360603785624</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.622101835105916</v>
+        <v>1.649175192969414</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.744348784455524</v>
+        <v>1.059090674227341</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.048845981131775</v>
+        <v>1.55812408006874</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.942309177916409</v>
+        <v>1.965004516931418</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>2.473597890589446</v>
+        <v>2.505731331151146</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>3.721273759755667</v>
+        <v>1.280747126436782</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.344827586206897</v>
+        <v>1.561494252873563</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.622101835105916</v>
+        <v>1.649175192969414</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8070990331993986</v>
+        <v>0.830111397646516</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7621479271513859</v>
+        <v>0.786557634928798</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.6644582882473942</v>
+        <v>0.7842582875501513</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.6355504016012294</v>
+        <v>0.8491124237628911</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.5410365585776299</v>
+        <v>0.5675321993239181</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.5057323716392111</v>
+        <v>0.5298397286667887</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.3706600480539047</v>
+        <v>0.5324429079628477</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.3796603849768011</v>
+        <v>0.5202765314340293</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7621479271513859</v>
+        <v>0.786557634928798</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.043587253114439</v>
+        <v>1.043874353644868</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.081502411011193</v>
+        <v>1.075869010857351</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.089496895491209</v>
+        <v>1.020092294728616</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.041839011208993</v>
+        <v>1.040361677890835</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>1.192750386178859</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.292295788504364</v>
+        <v>1.276285178376348</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.519778876321734</v>
+        <v>1.154520191034501</v>
       </c>
       <c r="U6" s="22" t="n">
         <v>1.309040382069002</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.081502411011193</v>
+        <v>1.075869010857351</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.84227826304788</v>
+        <v>0.8665319986714952</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8242648207614071</v>
+        <v>0.846232984673143</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.7239252422289387</v>
+        <v>0.800015836206969</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.6621412019777032</v>
+        <v>0.8833840259039153</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.6453215641803489</v>
+        <v>0.6769242499125404</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.6535558139796762</v>
+        <v>0.6762265926123684</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.5633213113287231</v>
+        <v>0.6147160878162321</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.4969907754064959</v>
+        <v>0.6810629894899366</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8242648207614071</v>
+        <v>0.846232984673143</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.02358193342331</v>
+        <v>1.019653150484416</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.009054004120349</v>
+        <v>1.005991833206363</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.002918935044063</v>
+        <v>1.003598747693383</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.003073842613725</v>
+        <v>1.00463370843718</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.051964579646617</v>
+        <v>1.043183891383127</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.021974175383643</v>
+        <v>1.011309427880102</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.009793498341894</v>
+        <v>1.012877416694539</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.01838867404788</v>
+        <v>1.02455651075317</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.009054004120349</v>
+        <v>1.005991833206363</v>
       </c>
     </row>
     <row r="8">
@@ -7087,47 +7087,47 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8621408129709762</v>
+        <v>0.883562082440948</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8317277178448393</v>
+        <v>0.8513034715710271</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.7260383329877624</v>
+        <v>0.8028948913521885</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.6641765198206456</v>
+        <v>0.8874773699180163</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.678855427999878</v>
+        <v>0.7061564731953682</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.667917164059065</v>
+        <v>0.6838743284921248</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.5688381976571745</v>
+        <v>0.6226320430278783</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.5061297767802493</v>
+        <v>0.6977875201149324</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8317277178448393</v>
+        <v>0.8513034715710271</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.029270684997572</v>
+        <v>1.024980136547293</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.047135916549092</v>
+        <v>1.033437118100574</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.060446658962042</v>
+        <v>1.034925275916956</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.06729341304544</v>
+        <v>1.061288461190767</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>1.089646693149808</v>
@@ -7136,13 +7136,13 @@
         <v>1.110115201957014</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.196153777640871</v>
+        <v>1.18066121484564</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.350933666592999</v>
+        <v>1.348545606321223</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.047135916549092</v>
+        <v>1.033437118100574</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8873762651310007</v>
+        <v>0.9056335839083336</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8709319661447404</v>
+        <v>0.8797686062893763</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.7699249244952435</v>
+        <v>0.830936216964978</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.7088712247040191</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.7397125722468645</v>
+        <v>0.7694610658636639</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.7414649974699848</v>
+        <v>0.7591792882872525</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.6804179589940537</v>
+        <v>0.7351175043231178</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.6837477551176382</v>
+        <v>0.9409982943967742</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.8709319661447404</v>
+        <v>0.8797686062893763</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.033351455408995</v>
+        <v>1.014925015316785</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.030806777881476</v>
+        <v>1.020138536165997</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.006927908873058</v>
+        <v>1.004384702387229</v>
       </c>
       <c r="Q9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.073591609481376</v>
+        <v>1.040095709379548</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.053460945839398</v>
+        <v>1.044162654606114</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.029428099381453</v>
+        <v>1.019028916341272</v>
       </c>
       <c r="U9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.030806777881476</v>
+        <v>1.020138536165997</v>
       </c>
     </row>
     <row r="10">
@@ -7215,44 +7215,44 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.916971555068518</v>
+        <v>0.9191501790195608</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.897762573775639</v>
+        <v>0.8974858581848433</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.7752588942112426</v>
+        <v>0.8345796249791395</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.7088712247040191</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.79414921099212</v>
+        <v>0.8003131531394109</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.781104417541537</v>
+        <v>0.7927066609799982</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.7004413663122558</v>
+        <v>0.7491059938138873</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.6837477551176382</v>
+        <v>0.9409982943967742</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.897762573775639</v>
+        <v>0.8974858581848433</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.013044484539981</v>
+        <v>1.013468262422931</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.025671370980512</v>
+        <v>1.021352442091547</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.01568797405803</v>
+        <v>1.010954264500858</v>
       </c>
       <c r="Q10" s="22" t="n">
         <v>1</v>
@@ -7261,16 +7261,16 @@
         <v>1.044209102795215</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.055261378494019</v>
+        <v>1.049692391204458</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.05830525484</v>
+        <v>1.044727743543511</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.025671370980512</v>
+        <v>1.021352442091547</v>
       </c>
     </row>
     <row r="11">
@@ -7279,44 +7279,44 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9289329763422117</v>
+        <v>0.93152953483668</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9208093698594527</v>
+        <v>0.9166493729997178</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.7874211356318859</v>
+        <v>0.8437218309381876</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.7088712247040191</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.8292578350956094</v>
+        <v>0.8356942795949137</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.82426932440265</v>
+        <v>0.8320981504877959</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.7412807786755699</v>
+        <v>0.7826118145921017</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.6837477551176382</v>
+        <v>0.9409982943967742</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9208093698594527</v>
+        <v>0.9166493729997178</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.006143326342218</v>
+        <v>1.005163207649034</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.014153693421808</v>
+        <v>1.008107248157472</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.028087931666623</v>
+        <v>1.01088677169371</v>
       </c>
       <c r="Q11" s="22" t="n">
         <v>1</v>
@@ -7325,16 +7325,16 @@
         <v>1.016364085600738</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.019091433200861</v>
+        <v>1.017338728139779</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.034677456279558</v>
+        <v>1.031211883624867</v>
       </c>
       <c r="U11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.014153693421808</v>
+        <v>1.008107248157472</v>
       </c>
     </row>
     <row r="12">
@@ -7343,47 +7343,47 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9346397147659302</v>
+        <v>0.9363392152562499</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9338422233803712</v>
+        <v>0.9240808769400179</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.809538166682369</v>
+        <v>0.8529072378846108</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.7088712247040191</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.8428278812941965</v>
+        <v>0.8493696523222519</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.8400058071490016</v>
+        <v>0.8465256741047168</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.7669865104689685</v>
+        <v>0.8070386034725963</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.6837477551176382</v>
+        <v>0.9409982943967742</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9338422233803712</v>
+        <v>0.9240808769400179</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.011729862698366</v>
+        <v>1.011791687755338</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.012593869304423</v>
+        <v>1.025213548464248</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.072680455187308</v>
+        <v>1.048480112984677</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.144847544148007</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>1.042008647633569</v>
@@ -7392,13 +7392,13 @@
         <v>1.0455093682697</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.091018736539399</v>
+        <v>1.076707056777546</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.145237953276186</v>
+        <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.012593869304423</v>
+        <v>1.025213548464248</v>
       </c>
     </row>
     <row r="13">
@@ -7407,44 +7407,44 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9456029102925748</v>
+        <v>0.9473802349156298</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9456029102925748</v>
+        <v>0.9473802349156298</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.8683757691283424</v>
+        <v>0.8942562771427054</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.8115494807195861</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.8782339407752319</v>
+        <v>0.8850505227573042</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.8782339407752319</v>
+        <v>0.8850505227573042</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.8367966535946167</v>
+        <v>0.8689441594508398</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.7830538796281108</v>
+        <v>0.9409982943967742</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9456029102925748</v>
+        <v>0.9473802349156298</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.012168252310969</v>
+        <v>1.012812282507002</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.012168252310969</v>
+        <v>1.012812282507002</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.009076396286872</v>
+        <v>1.004148321865528</v>
       </c>
       <c r="Q13" s="22" t="n">
         <v>1</v>
@@ -7456,13 +7456,13 @@
         <v>1.017369717017489</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.007832373213667</v>
+        <v>1.002546234526533</v>
       </c>
       <c r="U13" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.012168252310969</v>
+        <v>1.012812282507002</v>
       </c>
     </row>
     <row r="14">
@@ -7471,47 +7471,47 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9571092450910016</v>
+        <v>0.9595183381269189</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9571092450910016</v>
+        <v>0.9595183381269189</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.8762574917348687</v>
+        <v>0.8979659400105623</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.8115494807195861</v>
+        <v>0.941869492261921</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.8934886158016521</v>
+        <v>0.9004235998837793</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.8934886158016521</v>
+        <v>0.9004235998837793</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.8433507572895177</v>
+        <v>0.8711566950712626</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.7830538796281108</v>
+        <v>0.9409982943967742</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9571092450910016</v>
+        <v>0.9595183381269189</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.006338807299771</v>
+        <v>1.006645892628754</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.006338807299771</v>
+        <v>1.006645892628754</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.030909387466291</v>
+        <v>1.023129373379016</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.026673281640514</v>
+        <v>1.034524147915259</v>
       </c>
       <c r="R14" s="22" t="n">
         <v>1.018649652457652</v>
@@ -7520,13 +7520,13 @@
         <v>1.018649652457652</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.034191029505696</v>
+        <v>1.025857696172362</v>
       </c>
       <c r="U14" s="22" t="n">
         <v>1.031945513731779</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.006338807299771</v>
+        <v>1.006645892628754</v>
       </c>
     </row>
     <row r="15">
@@ -7535,47 +7535,47 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9631761761604624</v>
+        <v>0.9658951939774311</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9631761761604624</v>
+        <v>0.9658951939774311</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9033420740671421</v>
+        <v>0.918735329518706</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.8331961685840322</v>
+        <v>0.9743867339296418</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9101518679612214</v>
+        <v>0.9172161870862797</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9101518679612214</v>
+        <v>0.9172161870862797</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.8721857879156542</v>
+        <v>0.8936828002109347</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.8080689380924934</v>
+        <v>0.9710589683320071</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9631761761604624</v>
+        <v>0.9658951939774311</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.006515466414174</v>
+        <v>1.006768844985119</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.006515466414174</v>
+        <v>1.006768844985119</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.024444627465758</v>
+        <v>1.025369928147751</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.050944888745626</v>
+        <v>1.017320201156816</v>
       </c>
       <c r="R15" s="22" t="n">
         <v>1.020647196712442</v>
@@ -7584,13 +7584,13 @@
         <v>1.020647196712442</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.034411994520737</v>
+        <v>1.032414031643686</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.064828063287372</v>
+        <v>1.021281100999041</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.006515466414174</v>
+        <v>1.006768844985119</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9694517181871686</v>
+        <v>0.9724331888173356</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9694517181871686</v>
+        <v>0.9724331888173356</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9254239345418582</v>
+        <v>0.9420435788153957</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.8756432546958273</v>
+        <v>0.9912633081658364</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9289439526172133</v>
+        <v>0.9361541301288863</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9289439526172133</v>
+        <v>0.9361541301288863</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9021994404704721</v>
+        <v>0.9226506627763896</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.860454482351713</v>
+        <v>0.9917241723131053</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9694517181871686</v>
+        <v>0.9724331888173356</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.017511339880171</v>
+        <v>1.018767184708884</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.017511339880171</v>
+        <v>1.018767184708884</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.057603725673438</v>
+        <v>1.060571108462298</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.142017590653822</v>
+        <v>1.008813694365758</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.056041573571916</v>
+        <v>1.057708571971264</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.056041573571916</v>
+        <v>1.057708571971264</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.084062360357873</v>
+        <v>1.083588759971074</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.162176524744103</v>
+        <v>1.008344888546572</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.017511339880171</v>
+        <v>1.018767184708884</v>
       </c>
     </row>
     <row r="17">
@@ -7663,44 +7663,44 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9864281167217598</v>
+        <v>0.9906830220889197</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9864281167217598</v>
+        <v>0.9906830220889197</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9787318009988413</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9810034334819969</v>
+        <v>0.990178248123625</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9810034334819969</v>
+        <v>0.990178248123625</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9780404549499726</v>
+        <v>0.9997738875643576</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9864281167217598</v>
+        <v>0.9906830220889197</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.003761984277899</v>
+        <v>1.003849470393559</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.003761984277899</v>
+        <v>1.003849470393559</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.011274890310634</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
@@ -7712,13 +7712,13 @@
         <v>1.008641381797795</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.011521842397061</v>
+        <v>1</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.003761984277899</v>
+        <v>1.003849470393559</v>
       </c>
     </row>
     <row r="18">
@@ -7727,44 +7727,44 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9901390437881444</v>
+        <v>0.9944966270518526</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9901390437881444</v>
+        <v>0.9944966270518526</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9897668946986325</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9894806586956632</v>
+        <v>0.9987347564135334</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9894806586956632</v>
+        <v>0.9987347564135334</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9893092829298556</v>
+        <v>0.9997738875643576</v>
       </c>
       <c r="I18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9901390437881444</v>
+        <v>0.9944966270518526</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.004422675432591</v>
+        <v>1.004633073081244</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.004422675432591</v>
+        <v>1.004633073081244</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.004800335047344</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
@@ -7776,13 +7776,13 @@
         <v>1.00104044757044</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1.001213855498847</v>
+        <v>1</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.004422675432591</v>
+        <v>1.004633073081244</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9945181074119553</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9945181074119553</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9945181074119553</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="E19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9905101614430001</v>
+        <v>0.9997738875643576</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9905101614430001</v>
+        <v>0.9997738875643576</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9905101614430001</v>
+        <v>0.9997738875643576</v>
       </c>
       <c r="I19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9945181074119553</v>
+        <v>0.9991042026040341</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.005512109379597</v>
+        <v>1.00089660056842</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.005512109379597</v>
+        <v>1.00089660056842</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.005512109379597</v>
+        <v>1.00089660056842</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.009580758407541</v>
+        <v>1.000226163574039</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.009580758407541</v>
+        <v>1.000226163574039</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.009580758407541</v>
+        <v>1.000226163574039</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.005512109379597</v>
+        <v>1.00089660056842</v>
       </c>
     </row>
     <row r="20">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>96190.69166666665</v>
+        <v>95491.68500000001</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>500</v>
+        <v/>
       </c>
       <c r="T8" s="22" t="n">
         <v>2000</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>3064.75</v>
+        <v>53126.75</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>3314.75</v>
+        <v>53976.75</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>3964.75</v>
+        <v>54201.75</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>3964.75</v>
+        <v>54301.75</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>4664.75</v>
+        <v>55001.75</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>4664.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>7164.75</v>
+        <v>55704.52</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>95491.685</v>
+        <v>94994.745</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>53126.75</v>
+        <v>2250</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>53976.75</v>
+        <v>2625</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>54201.75</v>
+        <v>2725</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>54301.75</v>
+        <v>2925</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>55001.75</v>
+        <v>4125</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>55301.75</v>
+        <v>4775</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>55301.75</v>
+        <v>4775</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>55301.75</v>
+        <v>4775</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>55301.75</v>
+        <v>4875.43</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>55301.75</v>
+        <v>4875.43</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>55301.75</v>
+        <v>5101.47</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>55301.75</v>
+        <v>5101.47</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>55301.75</v>
+        <v>5101.47</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>55301.75</v>
+        <v>5101.47</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>55301.75</v>
+        <v>5454.14</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>55704.52</v>
+        <v>5454.14</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>94994.745</v>
+        <v>94248.85166666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8869,67 +8869,67 @@
         <v>1000</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>2625</v>
+        <v>4852.3</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>2725</v>
+        <v>4852.3</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>2925</v>
+        <v>4852.3</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>4125</v>
+        <v>5052.900000000001</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>4775</v>
+        <v>5252.900000000001</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>4775</v>
+        <v>5252.900000000001</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>4775</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>4875.43</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>4875.43</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>5101.47</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>5101.47</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>5101.47</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>5101.47</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>94248.85166666667</v>
+        <v>93522.47000000002</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8996,64 +8996,64 @@
         <v>1000</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>3000</v>
+        <v>4450</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>4852.3</v>
+        <v>4450</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>4852.3</v>
+        <v>6530</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>4852.3</v>
+        <v>6530</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>5052.900000000001</v>
+        <v>6730</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>5252.900000000001</v>
+        <v>6730</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>5252.900000000001</v>
+        <v>7480.93</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>7480.93</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>7480.93</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>7480.93</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>8341.83</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>8341.83</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>93522.47000000002</v>
+        <v>92888.80333333334</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>4450</v>
+        <v>2300</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>4450</v>
+        <v>3050</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>6530</v>
+        <v>3500</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>6530</v>
+        <v>3500</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>6730</v>
+        <v>3500</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>6730</v>
+        <v>3500</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>7480.93</v>
+        <v>3500</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>7480.93</v>
+        <v>4000</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>7480.93</v>
+        <v>4000</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>7480.93</v>
+        <v>4000</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>8341.83</v>
+        <v>4000</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>8341.83</v>
+        <v>4200</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>92888.80333333334</v>
+        <v>92054.53333333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9250,58 +9250,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>3050</v>
+        <v>1500</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>3500</v>
+        <v>2050.99</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>3500</v>
+        <v>2351.42</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>3500</v>
+        <v>2351.42</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>3500</v>
+        <v>3051.42</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>4000</v>
+        <v>3152.9</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>4000</v>
+        <v>3152.9</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>4000</v>
+        <v>3152.9</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>4000</v>
+        <v>3252.9</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>4200</v>
+        <v>3252.9</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>4200</v>
+        <v>3252.9</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>4802.9</v>
+        <v>3029.1</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>92054.53333333333</v>
+        <v>91387.24333333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9380,52 +9380,52 @@
         <v>1500</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>1900</v>
+        <v>1825.3</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>2050.99</v>
+        <v>2175.99</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>2351.42</v>
+        <v>2175.99</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>2351.42</v>
+        <v>2175.99</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>3051.42</v>
+        <v>2175.99</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>3152.9</v>
+        <v>2329.1</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>3152.9</v>
+        <v>2329.1</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>3152.9</v>
+        <v>2529.1</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>3252.9</v>
+        <v>2529.1</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>3252.9</v>
+        <v>2679.1</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>3252.9</v>
+        <v>3029.1</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>4802.9</v>
+        <v>3029.1</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>4802.9</v>
+        <v>3029.1</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>4802.9</v>
+        <v>3029.1</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>3029.1</v>
+        <v>5034.21</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>91387.24333333333</v>
+        <v>90637.03000000001</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9507,49 +9507,49 @@
         <v>1500</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1750</v>
+        <v>3403.95</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>1825.3</v>
+        <v>4303.95</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>2175.99</v>
+        <v>4303.95</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>2175.99</v>
+        <v>4555.51</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>2175.99</v>
+        <v>4555.51</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>2175.99</v>
+        <v>4809.21</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>2329.1</v>
+        <v>4809.21</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>2329.1</v>
+        <v>4909.21</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>2529.1</v>
+        <v>4909.21</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>2529.1</v>
+        <v>4984.21</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>2679.1</v>
+        <v>4984.21</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>3029.1</v>
+        <v>4984.21</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>3029.1</v>
+        <v>5034.21</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>3029.1</v>
+        <v>5034.21</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>5034.21</v>
+        <v>3382.67</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>90637.03000000001</v>
+        <v>90077.69500000001</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9631,49 +9631,49 @@
         <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1500</v>
+        <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>2500</v>
+        <v>1004.38</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>3403.95</v>
+        <v>2055.04</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>4303.95</v>
+        <v>2455.04</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>4303.95</v>
+        <v>2455.04</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>4555.51</v>
+        <v>2455.04</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>4555.51</v>
+        <v>2455.04</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>4809.21</v>
+        <v>2455.04</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>4809.21</v>
+        <v>2655.04</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>4909.21</v>
+        <v>3057.67</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>4909.21</v>
+        <v>3132.67</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>4984.21</v>
+        <v>3132.67</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>4984.21</v>
+        <v>3132.67</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>4984.21</v>
+        <v>3332.67</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>5034.21</v>
+        <v>3382.67</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>3332.67</v>
+        <v>3430.33</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>90077.69500000001</v>
+        <v>89632.09499999999</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9758,46 +9758,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1004.38</v>
+        <v>1000</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>2055.04</v>
+        <v>1200</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>2455.04</v>
+        <v>1200</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>2455.04</v>
+        <v>1400.39</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>2455.04</v>
+        <v>1400.39</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>2455.04</v>
+        <v>1602.69</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>2455.04</v>
+        <v>1702.69</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>2655.04</v>
+        <v>2105.33</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>3057.67</v>
+        <v>2180.33</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>3132.67</v>
+        <v>3130.33</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>3132.67</v>
+        <v>3130.33</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>3132.67</v>
+        <v>3430.33</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>3332.67</v>
+        <v>3430.33</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>3430.33</v>
+        <v>2426.57</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>89632.09499999999</v>
+        <v>89284.03500000002</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9885,43 +9885,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1200</v>
+        <v>1750.79</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>1200</v>
+        <v>2151.57</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>1400.39</v>
+        <v>2151.57</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>1400.39</v>
+        <v>2151.57</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>1602.69</v>
+        <v>2351.57</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>1702.69</v>
+        <v>2351.57</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>2105.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>2180.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>3130.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>3130.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>3430.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>89284.03499999999</v>
+        <v>88586.81666666665</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10015,40 +10015,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1500</v>
+        <v>1501.1</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1700</v>
+        <v>1701.1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1750.79</v>
+        <v>1701.1</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>2151.57</v>
+        <v>1701.1</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>2151.57</v>
+        <v>1751.72</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>2151.57</v>
+        <v>1751.72</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>2351.57</v>
+        <v>1751.72</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>2351.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>88586.81666666665</v>
+        <v>88010.36666666665</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10151,37 +10151,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1501.1</v>
+        <v/>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1701.1</v>
+        <v>1205.75</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1701.1</v>
+        <v>1205.75</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1701.1</v>
+        <v>2010.68</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>1751.72</v>
+        <v>6417.190000000001</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>1751.72</v>
+        <v>6417.190000000001</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>1751.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>88010.36666666665</v>
+        <v>87641.90666666666</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10290,31 +10290,31 @@
         <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1205.75</v>
+        <v>1005.75</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1205.75</v>
+        <v>1707.26</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>2010.68</v>
+        <v>27816.66</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>6417.190000000001</v>
+        <v>27816.66</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>6417.190000000001</v>
+        <v>27916.66</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>28116.66</v>
+        <v>2863.28</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>87641.90666666666</v>
+        <v>86708.92666666667</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10426,28 +10426,28 @@
         <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1005.75</v>
+        <v>500</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1707.26</v>
+        <v>2863.28</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>27816.66</v>
+        <v>2863.28</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>27816.66</v>
+        <v>2863.28</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>27916.66</v>
+        <v>2863.28</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>28116.66</v>
+        <v>2863.28</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>28116.66</v>
+        <v>2863.28</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>28116.66</v>
+        <v>2863.28</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>2863.28</v>
+        <v>3912.71</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>86708.92666666667</v>
+        <v>86091.15333333334</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10562,25 +10562,25 @@
         <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>500</v>
+        <v>1408.22</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>2863.28</v>
+        <v>1812.71</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>2863.28</v>
+        <v>1812.71</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>2863.28</v>
+        <v>1812.71</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>2863.28</v>
+        <v>1912.71</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>2863.28</v>
+        <v>3912.71</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>2863.28</v>
+        <v>3912.71</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>3912.71</v>
+        <v>27856.58</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>86091.15333333334</v>
+        <v>85710.18333333333</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10697,25 +10697,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v/>
+        <v>200</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>1408.22</v>
+        <v>1206.58</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1812.71</v>
+        <v>27856.58</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>1812.71</v>
+        <v>27856.58</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>1812.71</v>
+        <v>27856.58</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>1912.71</v>
+        <v>27856.58</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>3912.71</v>
+        <v>27856.58</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>27856.58</v>
+        <v>2752.19</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>85710.18333333333</v>
+        <v>84639.57333333332</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10835,22 +10835,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>200</v>
+        <v>1002.19</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>1206.58</v>
+        <v>1402.19</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>27856.58</v>
+        <v>1402.19</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>27856.58</v>
+        <v>1402.19</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>27856.58</v>
+        <v>2702.19</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>27856.58</v>
+        <v>2752.19</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>2702.19</v>
+        <v>2950</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>84639.57333333332</v>
+        <v>84198.78333333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10973,19 +10973,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>1002.19</v>
+        <v>1150</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>1402.19</v>
+        <v>1450</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>1402.19</v>
+        <v>1450</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>1402.19</v>
+        <v>2950</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>2702.19</v>
+        <v>2950</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2950</v>
+        <v>1650</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>84198.78333333333</v>
+        <v>83734.29666666668</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2950</v>
+        <v>1650</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>83734.29666666668</v>
+        <v>83042.50999999999</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>83042.50999999999</v>
+        <v>82457.045</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>15</v>
@@ -11387,10 +11387,10 @@
         <v>1000</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>82457.045</v>
+        <v>81825.395</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>15</v>
@@ -11522,10 +11522,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T30" s="22" t="n">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11602,7 +11602,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>11100</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>81825.395</v>
+        <v>81263.94916666666</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>15</v>
@@ -11660,7 +11660,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>11100</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
